--- a/Steps.xlsx
+++ b/Steps.xlsx
@@ -13,15 +13,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>What added to me?</t>
+  </si>
+  <si>
+    <t>Ahsan laptop, Stevia, Aaliyan.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,18 +44,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -61,15 +68,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,6 +137,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -90,19 +159,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,60 +191,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,67 +205,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,115 +349,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,6 +423,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -412,6 +443,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,17 +477,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,176 +496,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,14 +975,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="10.4"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45389</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Steps.xlsx
+++ b/Steps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -22,7 +22,16 @@
     <t>What added to me?</t>
   </si>
   <si>
+    <t>7 April, 2024</t>
+  </si>
+  <si>
     <t>Ahsan laptop, Stevia, Aaliyan.</t>
+  </si>
+  <si>
+    <t>8 April, 2024</t>
+  </si>
+  <si>
+    <t>Multan to Shujabad, to give Eid.</t>
   </si>
 </sst>
 </file>
@@ -52,9 +61,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,122 +176,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,13 +214,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,13 +322,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,151 +370,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +405,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -414,11 +432,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,17 +456,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,143 +505,123 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,28 +630,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -975,15 +984,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="10.4"/>
+    <col min="1" max="1" width="13.7" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
   </cols>
   <sheetData>
@@ -996,12 +1005,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <f ca="1">TODAY()</f>
-        <v>45389</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Steps.xlsx
+++ b/Steps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -33,14 +33,20 @@
   <si>
     <t>Multan to Shujabad, to give Eid.</t>
   </si>
+  <si>
+    <t>10 April, 2024</t>
+  </si>
+  <si>
+    <t>Eid-ul-Fitr 2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -62,22 +68,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,6 +82,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -101,60 +130,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,6 +168,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -190,16 +188,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,187 +220,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,22 +418,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,7 +442,52 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,183 +511,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -984,13 +990,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.7" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
@@ -1020,6 +1026,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Steps.xlsx
+++ b/Steps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -37,7 +37,13 @@
     <t>10 April, 2024</t>
   </si>
   <si>
-    <t>Eid-ul-Fitr 2024</t>
+    <t>Eid-ul-Fitr 2024 Day-1</t>
+  </si>
+  <si>
+    <t>11 April, 2024</t>
+  </si>
+  <si>
+    <t>Eid-ul-Fitr 2024 Day-2</t>
   </si>
 </sst>
 </file>
@@ -67,8 +73,79 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,39 +159,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,67 +183,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,14 +212,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,13 +226,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,96 +394,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -335,72 +407,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +424,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,15 +494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -462,47 +509,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -516,148 +522,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -990,13 +996,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.7" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
@@ -1034,6 +1040,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Steps.xlsx
+++ b/Steps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Eid-ul-Fitr 2024 Day-2</t>
+  </si>
+  <si>
+    <t>12 April 2024</t>
+  </si>
+  <si>
+    <t>Eid-ul-Fitr 2024 Day-3</t>
   </si>
 </sst>
 </file>
@@ -51,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -70,6 +76,95 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -81,18 +176,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,48 +200,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,59 +215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,49 +438,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,9 +485,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,148 +528,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,13 +1002,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.7" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
@@ -1048,6 +1054,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Steps.xlsx
+++ b/Steps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Eid-ul-Fitr 2024 Day-3</t>
+  </si>
+  <si>
+    <t>13 April 2024</t>
+  </si>
+  <si>
+    <t>Family time.</t>
   </si>
 </sst>
 </file>
@@ -57,9 +63,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -79,6 +85,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,22 +117,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,6 +146,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -124,28 +171,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -153,48 +214,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,22 +224,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,13 +238,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,49 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,78 +406,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -388,31 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,9 +443,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,27 +477,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,17 +506,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,148 +534,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,13 +1008,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.7" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
@@ -1062,6 +1068,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Steps.xlsx
+++ b/Steps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Family time.</t>
+  </si>
+  <si>
+    <t>16 April 2024</t>
+  </si>
+  <si>
+    <t>Routing, Ant Design, Form in Detail, First task of main project.</t>
   </si>
 </sst>
 </file>
@@ -63,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -88,13 +94,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,16 +107,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,74 +148,88 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,19 +244,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,31 +286,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,25 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,97 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,26 +443,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +473,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,147 +526,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,13 +1014,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.7" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
@@ -1076,6 +1082,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Steps.xlsx
+++ b/Steps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>Family time.</t>
+  </si>
+  <si>
+    <t>14 April 2024</t>
+  </si>
+  <si>
+    <t>Home to Home.</t>
+  </si>
+  <si>
+    <t>15 April 2024</t>
+  </si>
+  <si>
+    <t>First Day after Eid at internship. UI understanding.</t>
   </si>
   <si>
     <t>16 April 2024</t>
@@ -69,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -91,11 +103,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,6 +149,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -138,24 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,7 +190,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,14 +198,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,9 +219,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,28 +235,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +256,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -256,19 +280,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,49 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,97 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +447,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -458,6 +479,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,177 +547,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,13 +1026,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.7" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
@@ -1090,6 +1102,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Steps.xlsx
+++ b/Steps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -74,17 +74,21 @@
   </si>
   <si>
     <t>Routing, Ant Design, Form in Detail, First task of main project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> First Search for React Native</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -110,8 +114,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -126,47 +138,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,8 +161,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -198,15 +202,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,34 +246,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,31 +260,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,25 +380,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,121 +422,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,15 +451,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,6 +493,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,17 +534,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,152 +556,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,6 +709,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,15 +1033,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="13.7" customWidth="1"/>
+    <col min="1" max="1" width="17.7" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1118,6 +1125,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3">
+        <v>45423</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
